--- a/Assets/Resources/card/testcard.xlsx
+++ b/Assets/Resources/card/testcard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\monopoly\Assets\Resources\card\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0DF0B0A-BE5C-4D4E-9565-F4748B576BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB21466-71C3-4731-BBA1-908F4F90B5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{D92EEEA1-78F1-4B6F-91EA-658BC63BE4AE}"/>
   </bookViews>
@@ -1155,7 +1155,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65A62C29-772D-413E-873B-0DC5ABB7A9F7}">
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -1807,7 +1809,7 @@
         <v>23</v>
       </c>
       <c r="S34">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
